--- a/inst/app/www/data_boxvalue.xlsx
+++ b/inst/app/www/data_boxvalue.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -131,12 +131,6 @@
     <t>infobox10</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>cog</t>
-  </si>
-  <si>
     <t>rocket</t>
   </si>
   <si>
@@ -225,6 +219,48 @@
   </si>
   <si>
     <t>essai10</t>
+  </si>
+  <si>
+    <t>infobox_title</t>
+  </si>
+  <si>
+    <t>Titre 1</t>
+  </si>
+  <si>
+    <t>Titre 2</t>
+  </si>
+  <si>
+    <t>Titre 3</t>
+  </si>
+  <si>
+    <t>Titre 4</t>
+  </si>
+  <si>
+    <t>Titre 5</t>
+  </si>
+  <si>
+    <t>Titre 6</t>
+  </si>
+  <si>
+    <t>Titre 7</t>
+  </si>
+  <si>
+    <t>Titre 8</t>
+  </si>
+  <si>
+    <t>Titre 9</t>
+  </si>
+  <si>
+    <t>Titre 10</t>
+  </si>
+  <si>
+    <t>infobox_icon_lib</t>
+  </si>
+  <si>
+    <t>glyphicon</t>
+  </si>
+  <si>
+    <t>infobox_delta</t>
   </si>
 </sst>
 </file>
@@ -545,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,14 +600,15 @@
     <col min="9" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.5546875" style="1"/>
+    <col min="13" max="13" width="16.33203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="19.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,31 +646,40 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -649,38 +695,50 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
       <c r="H2" s="1">
         <v>6</v>
       </c>
       <c r="I2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="1">
+        <v>66</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="1">
         <v>10</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="S2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>45</v>
+      <c r="W2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -696,38 +754,47 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
       <c r="H3" s="1">
         <v>6</v>
       </c>
       <c r="I3" s="1">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="1">
         <v>24</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="1">
         <v>10</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="S3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>45</v>
+      <c r="W3" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -743,38 +810,47 @@
       <c r="E4" s="1">
         <v>3</v>
       </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
       <c r="H4" s="1">
         <v>6</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="1">
         <v>25</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="1">
         <v>10</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="S4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>45</v>
+      <c r="W4" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -790,38 +866,47 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
       <c r="H5" s="1">
         <v>6</v>
       </c>
       <c r="I5" s="1">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="1">
         <v>26</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="1">
         <v>10</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="S5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>45</v>
+      <c r="W5" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -837,38 +922,47 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
       <c r="H6" s="1">
         <v>6</v>
       </c>
       <c r="I6" s="1">
-        <v>3</v>
-      </c>
-      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="1">
         <v>27</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="1">
         <v>10</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="S6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>45</v>
+      <c r="W6" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -884,38 +978,47 @@
       <c r="E7" s="1">
         <v>6</v>
       </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
       <c r="H7" s="1">
         <v>6</v>
       </c>
       <c r="I7" s="1">
-        <v>3</v>
-      </c>
-      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="1">
         <v>28</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="1">
         <v>10</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="S7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>45</v>
+      <c r="W7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -931,38 +1034,47 @@
       <c r="E8" s="1">
         <v>7</v>
       </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
       <c r="H8" s="1">
         <v>6</v>
       </c>
       <c r="I8" s="1">
-        <v>3</v>
-      </c>
-      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="1">
         <v>29</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="1">
         <v>10</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="S8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>45</v>
+      <c r="W8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -978,38 +1090,47 @@
       <c r="E9" s="1">
         <v>8</v>
       </c>
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
       <c r="H9" s="1">
         <v>6</v>
       </c>
       <c r="I9" s="1">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="1">
         <v>30</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="1">
         <v>10</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="S9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>45</v>
+      <c r="W9" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1025,38 +1146,47 @@
       <c r="E10" s="1">
         <v>9</v>
       </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
       <c r="H10" s="1">
         <v>6</v>
       </c>
       <c r="I10" s="1">
-        <v>3</v>
-      </c>
-      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="1">
         <v>31</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="1">
         <v>10</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="S10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>45</v>
+      <c r="W10" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1072,43 +1202,52 @@
       <c r="E11" s="1">
         <v>10</v>
       </c>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
       <c r="H11" s="1">
         <v>6</v>
       </c>
       <c r="I11" s="1">
-        <v>3</v>
-      </c>
-      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="1">
         <v>32</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="1">
         <v>44</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -1126,16 +1265,16 @@
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>45</v>
+      <c r="W12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
